--- a/Examples/teste_example_4/data_exa4.xlsx
+++ b/Examples/teste_example_4/data_exa4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\PycharmProjects\MT_PEU\Examples\teste_example_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273CFC02-C764-4F50-A689-D9A3D3A66761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D51A863-2A97-4E54-A438-139340078EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="7995" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="independent variable" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>x1</t>
   </si>
@@ -86,6 +86,36 @@
   </si>
   <si>
     <t>50.</t>
+  </si>
+  <si>
+    <t>1.66</t>
+  </si>
+  <si>
+    <t>6.07</t>
+  </si>
+  <si>
+    <t>7.55</t>
+  </si>
+  <si>
+    <t>9.72</t>
+  </si>
+  <si>
+    <t>15.24</t>
+  </si>
+  <si>
+    <t>18.79</t>
+  </si>
+  <si>
+    <t>19.33</t>
+  </si>
+  <si>
+    <t>22.38</t>
+  </si>
+  <si>
+    <t>24.27</t>
+  </si>
+  <si>
+    <t>25.51</t>
   </si>
 </sst>
 </file>
@@ -357,7 +387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78D95B7-B7C2-4B1D-A0AA-907023D16FAD}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -726,8 +756,8 @@
   </sheetPr>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -747,13 +777,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1.66</v>
+      <c r="A2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="str">
         <f>A2</f>
         <v>1.66</v>
       </c>
@@ -763,13 +793,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>6.07</v>
+      <c r="A3" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="str">
         <f t="shared" ref="C3:C11" si="0">A3</f>
         <v>6.07</v>
       </c>
@@ -779,13 +809,13 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>7.55</v>
+      <c r="A4" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="str">
         <f t="shared" si="0"/>
         <v>7.55</v>
       </c>
@@ -795,15 +825,15 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>9.7200000000000006</v>
+      <c r="A5" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>9.7200000000000006</v>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>9.72</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
@@ -811,13 +841,13 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>15.24</v>
+      <c r="A6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="str">
         <f t="shared" si="0"/>
         <v>15.24</v>
       </c>
@@ -827,13 +857,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>18.79</v>
+      <c r="A7" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="str">
         <f t="shared" si="0"/>
         <v>18.79</v>
       </c>
@@ -843,15 +873,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>19.329999999999998</v>
+      <c r="A8" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>19.329999999999998</v>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>19.33</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
@@ -859,13 +889,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>22.38</v>
+      <c r="A9" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v>22.38</v>
       </c>
@@ -875,13 +905,13 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>24.27</v>
+      <c r="A10" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="str">
         <f t="shared" si="0"/>
         <v>24.27</v>
       </c>
@@ -891,13 +921,13 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>25.51</v>
+      <c r="A11" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v>25.51</v>
       </c>

--- a/Examples/teste_example_4/data_exa4.xlsx
+++ b/Examples/teste_example_4/data_exa4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\PycharmProjects\MT_PEU\Examples\teste_example_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D51A863-2A97-4E54-A438-139340078EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273CFC02-C764-4F50-A689-D9A3D3A66761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="7995" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="independent variable" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>x1</t>
   </si>
@@ -86,36 +86,6 @@
   </si>
   <si>
     <t>50.</t>
-  </si>
-  <si>
-    <t>1.66</t>
-  </si>
-  <si>
-    <t>6.07</t>
-  </si>
-  <si>
-    <t>7.55</t>
-  </si>
-  <si>
-    <t>9.72</t>
-  </si>
-  <si>
-    <t>15.24</t>
-  </si>
-  <si>
-    <t>18.79</t>
-  </si>
-  <si>
-    <t>19.33</t>
-  </si>
-  <si>
-    <t>22.38</t>
-  </si>
-  <si>
-    <t>24.27</t>
-  </si>
-  <si>
-    <t>25.51</t>
   </si>
 </sst>
 </file>
@@ -387,7 +357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78D95B7-B7C2-4B1D-A0AA-907023D16FAD}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -756,8 +726,8 @@
   </sheetPr>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -777,13 +747,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
+      <c r="A2" s="1">
+        <v>1.66</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2">
         <f>A2</f>
         <v>1.66</v>
       </c>
@@ -793,13 +763,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
+      <c r="A3" s="1">
+        <v>6.07</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3">
         <f t="shared" ref="C3:C11" si="0">A3</f>
         <v>6.07</v>
       </c>
@@ -809,13 +779,13 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
+      <c r="A4" s="1">
+        <v>7.55</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4">
         <f t="shared" si="0"/>
         <v>7.55</v>
       </c>
@@ -825,15 +795,15 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
+      <c r="A5" s="1">
+        <v>9.7200000000000006</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>9.72</v>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>9.7200000000000006</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
@@ -841,13 +811,13 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
+      <c r="A6" s="1">
+        <v>15.24</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6">
         <f t="shared" si="0"/>
         <v>15.24</v>
       </c>
@@ -857,13 +827,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
+      <c r="A7" s="1">
+        <v>18.79</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7">
         <f t="shared" si="0"/>
         <v>18.79</v>
       </c>
@@ -873,15 +843,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
+      <c r="A8" s="1">
+        <v>19.329999999999998</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>19.33</v>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>19.329999999999998</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
@@ -889,13 +859,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
+      <c r="A9" s="1">
+        <v>22.38</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9">
         <f t="shared" si="0"/>
         <v>22.38</v>
       </c>
@@ -905,13 +875,13 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
+      <c r="A10" s="1">
+        <v>24.27</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10">
         <f t="shared" si="0"/>
         <v>24.27</v>
       </c>
@@ -921,13 +891,13 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
+      <c r="A11" s="1">
+        <v>25.51</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11">
         <f t="shared" si="0"/>
         <v>25.51</v>
       </c>
